--- a/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>5.150378774363825</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.459889111550063</v>
+        <v>3.459889111550068</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.2722203729440882</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.2181820528943511</v>
+        <v>0.2181820528943516</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1344747434791422</v>
+        <v>0.8903970285213675</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.008329268958814003</v>
+        <v>-0.1717604783307838</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.00630687807602054</v>
+        <v>0.05151188269586574</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.00348654494423356</v>
+        <v>-0.00944485573562958</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.438143663410848</v>
+        <v>9.979578795886626</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.8751223383752</v>
+        <v>6.827139554620784</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.5610370394681014</v>
+        <v>0.6182746858810801</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4941686647666179</v>
+        <v>0.4966431922043922</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.3788691782280155</v>
+        <v>-0.1394453670789634</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.360079589139155</v>
+        <v>2.388400239614973</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01680260789913931</v>
+        <v>-0.004893135172825646</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1796717772830147</v>
+        <v>0.1751260302767285</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.256547606055813</v>
+        <v>7.182115797841564</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.921608019982846</v>
+        <v>8.026963902355682</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4011820255052466</v>
+        <v>0.3989272575132602</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7630205789885115</v>
+        <v>0.7539436053340807</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.040630535499516</v>
+        <v>-1.868569631126882</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.839496930598652</v>
+        <v>-1.931120762099499</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1100305873906611</v>
+        <v>-0.1002684415184063</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.170678007655038</v>
+        <v>-0.1768817525830426</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.305619008465881</v>
+        <v>6.195232906799755</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.054411148131059</v>
+        <v>4.189923394324083</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.4092904313078359</v>
+        <v>0.4140329577436476</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.5630108219325837</v>
+        <v>0.5676325026704515</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>8.249091821470616</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.407665297996291</v>
+        <v>4.407665297996285</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.4720505640162184</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.2649306476902646</v>
+        <v>0.2649306476902643</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.741054755147054</v>
+        <v>4.175885561806338</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.210990348286384</v>
+        <v>1.324269582677573</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2442206159386654</v>
+        <v>0.2068392322851353</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06668621207364264</v>
+        <v>0.0693884554719203</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.0260546886003</v>
+        <v>11.78313794558334</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.484914021346796</v>
+        <v>7.447405546095245</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.764936001664917</v>
+        <v>0.7488855058517617</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5021860025765721</v>
+        <v>0.5013300410710207</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>4.946510199818569</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.893990672901262</v>
+        <v>3.893990672901265</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.2670981561469967</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.290666194610063</v>
+        <v>0.2906661946100632</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.813686944952085</v>
+        <v>3.034440736228122</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.274358369224305</v>
+        <v>2.272260379409626</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.1432535460725199</v>
+        <v>0.1551134223475923</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1607019873916282</v>
+        <v>0.1640968160831307</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.012793117179328</v>
+        <v>7.056081778334086</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.36039126589773</v>
+        <v>5.400147911213102</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.4003372753326987</v>
+        <v>0.4025077309879963</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.4236579760968331</v>
+        <v>0.4304855924093601</v>
       </c>
     </row>
     <row r="19">
